--- a/Power BI/분류.xlsx
+++ b/Power BI/분류.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzz07\Desktop\PROGRAMMING\Hunet\PY_\hunet_semi2\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzz07\Desktop\PROGRAMMING\Hunet\PY_\hunet_semi2\Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B3273-FD38-408C-BB90-19E02246DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A29EE2-CFB7-4E71-B9E3-2AFD5C4EB312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1680" windowWidth="12150" windowHeight="12330" xr2:uid="{6A9C217F-0C9D-430E-8D24-76567EAAE4B8}"/>
+    <workbookView xWindow="7305" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{6A9C217F-0C9D-430E-8D24-76567EAAE4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D67CA26-3FC0-437C-A003-3B5F7C7D040F}">
   <dimension ref="A1:B270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
